--- a/6/1/2/1/1/Posiciones mensuales por plazo residual, bancos reciben tasa fija 2019 a 2021 - Mensual.xlsx
+++ b/6/1/2/1/1/Posiciones mensuales por plazo residual, bancos reciben tasa fija 2019 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Serie</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,6 +1492,38 @@
         <v>8492</v>
       </c>
     </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>78499</v>
+      </c>
+      <c r="C32">
+        <v>12881</v>
+      </c>
+      <c r="D32">
+        <v>9312</v>
+      </c>
+      <c r="E32">
+        <v>4983</v>
+      </c>
+      <c r="F32">
+        <v>5181</v>
+      </c>
+      <c r="G32">
+        <v>6269</v>
+      </c>
+      <c r="H32">
+        <v>17107</v>
+      </c>
+      <c r="I32">
+        <v>13890</v>
+      </c>
+      <c r="J32">
+        <v>8875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/2/1/1/Posiciones mensuales por plazo residual, bancos reciben tasa fija 2019 a 2021 - Mensual.xlsx
+++ b/6/1/2/1/1/Posiciones mensuales por plazo residual, bancos reciben tasa fija 2019 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Serie</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1524,6 +1527,38 @@
         <v>8875</v>
       </c>
     </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>84660</v>
+      </c>
+      <c r="C33">
+        <v>15861</v>
+      </c>
+      <c r="D33">
+        <v>8832</v>
+      </c>
+      <c r="E33">
+        <v>5538</v>
+      </c>
+      <c r="F33">
+        <v>6199</v>
+      </c>
+      <c r="G33">
+        <v>6549</v>
+      </c>
+      <c r="H33">
+        <v>17996</v>
+      </c>
+      <c r="I33">
+        <v>14438</v>
+      </c>
+      <c r="J33">
+        <v>9247</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/2/1/1/Posiciones mensuales por plazo residual, bancos reciben tasa fija 2019 a 2021 - Mensual.xlsx
+++ b/6/1/2/1/1/Posiciones mensuales por plazo residual, bancos reciben tasa fija 2019 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Serie</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1559,6 +1562,38 @@
         <v>9247</v>
       </c>
     </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>88718</v>
+      </c>
+      <c r="C34">
+        <v>17630</v>
+      </c>
+      <c r="D34">
+        <v>8608</v>
+      </c>
+      <c r="E34">
+        <v>5940</v>
+      </c>
+      <c r="F34">
+        <v>5569</v>
+      </c>
+      <c r="G34">
+        <v>7294</v>
+      </c>
+      <c r="H34">
+        <v>19554</v>
+      </c>
+      <c r="I34">
+        <v>14362</v>
+      </c>
+      <c r="J34">
+        <v>9760</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
